--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.950289924653909</v>
+        <v>2.202205</v>
       </c>
       <c r="H2">
-        <v>0.950289924653909</v>
+        <v>6.606615000000001</v>
       </c>
       <c r="I2">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="J2">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>1.525380063222067</v>
+        <v>3.851768857455001</v>
       </c>
       <c r="R2">
-        <v>1.525380063222067</v>
+        <v>34.66591971709501</v>
       </c>
       <c r="S2">
-        <v>5.239141582587807E-05</v>
+        <v>0.0001188909416204855</v>
       </c>
       <c r="T2">
-        <v>5.239141582587807E-05</v>
+        <v>0.0001188909416204856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.950289924653909</v>
+        <v>2.202205</v>
       </c>
       <c r="H3">
-        <v>0.950289924653909</v>
+        <v>6.606615000000001</v>
       </c>
       <c r="I3">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="J3">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>135.3550182737051</v>
+        <v>314.9936107284334</v>
       </c>
       <c r="R3">
-        <v>135.3550182737051</v>
+        <v>2834.942496555901</v>
       </c>
       <c r="S3">
-        <v>0.004648966652624085</v>
+        <v>0.00972277630612668</v>
       </c>
       <c r="T3">
-        <v>0.004648966652624085</v>
+        <v>0.009722776306126682</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.950289924653909</v>
+        <v>2.202205</v>
       </c>
       <c r="H4">
-        <v>0.950289924653909</v>
+        <v>6.606615000000001</v>
       </c>
       <c r="I4">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="J4">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>115.5691046735659</v>
+        <v>292.46342101046</v>
       </c>
       <c r="R4">
-        <v>115.5691046735659</v>
+        <v>2632.17078909414</v>
       </c>
       <c r="S4">
-        <v>0.003969390426401391</v>
+        <v>0.009027346344052604</v>
       </c>
       <c r="T4">
-        <v>0.003969390426401391</v>
+        <v>0.009027346344052608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.950289924653909</v>
+        <v>2.202205</v>
       </c>
       <c r="H5">
-        <v>0.950289924653909</v>
+        <v>6.606615000000001</v>
       </c>
       <c r="I5">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="J5">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>118.7045991004407</v>
+        <v>276.83298914072</v>
       </c>
       <c r="R5">
-        <v>118.7045991004407</v>
+        <v>2491.49690226648</v>
       </c>
       <c r="S5">
-        <v>0.004077083581896766</v>
+        <v>0.008544888327567137</v>
       </c>
       <c r="T5">
-        <v>0.004077083581896766</v>
+        <v>0.008544888327567139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.950289924653909</v>
+        <v>2.202205</v>
       </c>
       <c r="H6">
-        <v>0.950289924653909</v>
+        <v>6.606615000000001</v>
       </c>
       <c r="I6">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="J6">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>50.04900650921528</v>
+        <v>118.0084178587417</v>
       </c>
       <c r="R6">
-        <v>50.04900650921528</v>
+        <v>1062.075760728675</v>
       </c>
       <c r="S6">
-        <v>0.001719006544610018</v>
+        <v>0.003642516578120869</v>
       </c>
       <c r="T6">
-        <v>0.001719006544610018</v>
+        <v>0.003642516578120869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.950289924653909</v>
+        <v>2.202205</v>
       </c>
       <c r="H7">
-        <v>0.950289924653909</v>
+        <v>6.606615000000001</v>
       </c>
       <c r="I7">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="J7">
-        <v>0.01517460640800151</v>
+        <v>0.0326200175043477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>20.60671302956736</v>
+        <v>50.65669325250667</v>
       </c>
       <c r="R7">
-        <v>20.60671302956736</v>
+        <v>455.91023927256</v>
       </c>
       <c r="S7">
-        <v>0.0007077677866433682</v>
+        <v>0.001563599006859921</v>
       </c>
       <c r="T7">
-        <v>0.0007077677866433682</v>
+        <v>0.001563599006859922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.0532927808367</v>
+        <v>29.50416933333333</v>
       </c>
       <c r="H8">
-        <v>29.0532927808367</v>
+        <v>88.512508</v>
       </c>
       <c r="I8">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="J8">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>46.63557134416852</v>
+        <v>51.60429687663601</v>
       </c>
       <c r="R8">
-        <v>46.63557134416852</v>
+        <v>464.438671889724</v>
       </c>
       <c r="S8">
-        <v>0.001601767106755503</v>
+        <v>0.001592848292402502</v>
       </c>
       <c r="T8">
-        <v>0.001601767106755503</v>
+        <v>0.001592848292402502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.0532927808367</v>
+        <v>29.50416933333333</v>
       </c>
       <c r="H9">
-        <v>29.0532927808367</v>
+        <v>88.512508</v>
       </c>
       <c r="I9">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="J9">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>4138.220213892781</v>
+        <v>4220.145186233698</v>
       </c>
       <c r="R9">
-        <v>4138.220213892781</v>
+        <v>37981.30667610328</v>
       </c>
       <c r="S9">
-        <v>0.142133243532204</v>
+        <v>0.13026146000308</v>
       </c>
       <c r="T9">
-        <v>0.142133243532204</v>
+        <v>0.13026146000308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.0532927808367</v>
+        <v>29.50416933333333</v>
       </c>
       <c r="H10">
-        <v>29.0532927808367</v>
+        <v>88.512508</v>
       </c>
       <c r="I10">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="J10">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>3533.303834325211</v>
+        <v>3918.295661529499</v>
       </c>
       <c r="R10">
-        <v>3533.303834325211</v>
+        <v>35264.66095376549</v>
       </c>
       <c r="S10">
-        <v>0.1213565031342306</v>
+        <v>0.1209443967140097</v>
       </c>
       <c r="T10">
-        <v>0.1213565031342306</v>
+        <v>0.1209443967140097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.0532927808367</v>
+        <v>29.50416933333333</v>
       </c>
       <c r="H11">
-        <v>29.0532927808367</v>
+        <v>88.512508</v>
       </c>
       <c r="I11">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="J11">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>3629.165565817158</v>
+        <v>3708.88604315249</v>
       </c>
       <c r="R11">
-        <v>3629.165565817158</v>
+        <v>33379.97438837241</v>
       </c>
       <c r="S11">
-        <v>0.1246490149202929</v>
+        <v>0.1144806374297417</v>
       </c>
       <c r="T11">
-        <v>0.1246490149202929</v>
+        <v>0.1144806374297417</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.0532927808367</v>
+        <v>29.50416933333333</v>
       </c>
       <c r="H12">
-        <v>29.0532927808367</v>
+        <v>88.512508</v>
       </c>
       <c r="I12">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="J12">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>1530.15243219779</v>
+        <v>1581.024629070896</v>
       </c>
       <c r="R12">
-        <v>1530.15243219779</v>
+        <v>14229.22166163806</v>
       </c>
       <c r="S12">
-        <v>0.05255532983885755</v>
+        <v>0.04880082731641786</v>
       </c>
       <c r="T12">
-        <v>0.05255532983885755</v>
+        <v>0.04880082731641787</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.0532927808367</v>
+        <v>29.50416933333333</v>
       </c>
       <c r="H13">
-        <v>29.0532927808367</v>
+        <v>88.512508</v>
       </c>
       <c r="I13">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="J13">
-        <v>0.4639345018481513</v>
+        <v>0.4370285782225414</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>630.0107486846648</v>
+        <v>678.6759886516835</v>
       </c>
       <c r="R13">
-        <v>630.0107486846648</v>
+        <v>6108.083897865152</v>
       </c>
       <c r="S13">
-        <v>0.02163864331581068</v>
+        <v>0.02094840846688975</v>
       </c>
       <c r="T13">
-        <v>0.02163864331581068</v>
+        <v>0.02094840846688976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.13733725069652</v>
+        <v>3.928174666666667</v>
       </c>
       <c r="H14">
-        <v>2.13733725069652</v>
+        <v>11.784524</v>
       </c>
       <c r="I14">
-        <v>0.03412984890089387</v>
+        <v>0.05818583028682699</v>
       </c>
       <c r="J14">
-        <v>0.03412984890089387</v>
+        <v>0.058185830286827</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>3.430796797915861</v>
+        <v>6.870577828908001</v>
       </c>
       <c r="R14">
-        <v>3.430796797915861</v>
+        <v>61.835200460172</v>
       </c>
       <c r="S14">
-        <v>0.0001178357486028932</v>
+        <v>0.0002120712581116366</v>
       </c>
       <c r="T14">
-        <v>0.0001178357486028932</v>
+        <v>0.0002120712581116367</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.13733725069652</v>
+        <v>3.928174666666667</v>
       </c>
       <c r="H15">
-        <v>2.13733725069652</v>
+        <v>11.784524</v>
       </c>
       <c r="I15">
-        <v>0.03412984890089387</v>
+        <v>0.05818583028682699</v>
       </c>
       <c r="J15">
-        <v>0.03412984890089387</v>
+        <v>0.058185830286827</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>304.43269482254</v>
+        <v>561.8686370366489</v>
       </c>
       <c r="R15">
-        <v>304.43269482254</v>
+        <v>5056.81773332984</v>
       </c>
       <c r="S15">
-        <v>0.01045618747091121</v>
+        <v>0.01734296469919637</v>
       </c>
       <c r="T15">
-        <v>0.01045618747091121</v>
+        <v>0.01734296469919637</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.13733725069652</v>
+        <v>3.928174666666667</v>
       </c>
       <c r="H16">
-        <v>2.13733725069652</v>
+        <v>11.784524</v>
       </c>
       <c r="I16">
-        <v>0.03412984890089387</v>
+        <v>0.05818583028682699</v>
       </c>
       <c r="J16">
-        <v>0.03412984890089387</v>
+        <v>0.058185830286827</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>259.9313599356718</v>
+        <v>521.6804981098293</v>
       </c>
       <c r="R16">
-        <v>259.9313599356718</v>
+        <v>4695.124482988464</v>
       </c>
       <c r="S16">
-        <v>0.008927723845957474</v>
+        <v>0.01610249418920282</v>
       </c>
       <c r="T16">
-        <v>0.008927723845957474</v>
+        <v>0.01610249418920282</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.13733725069652</v>
+        <v>3.928174666666667</v>
       </c>
       <c r="H17">
-        <v>2.13733725069652</v>
+        <v>11.784524</v>
       </c>
       <c r="I17">
-        <v>0.03412984890089387</v>
+        <v>0.05818583028682699</v>
       </c>
       <c r="J17">
-        <v>0.03412984890089387</v>
+        <v>0.058185830286827</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>266.9835330294269</v>
+        <v>493.7997756068053</v>
       </c>
       <c r="R17">
-        <v>266.9835330294269</v>
+        <v>4444.197980461247</v>
       </c>
       <c r="S17">
-        <v>0.009169941075577318</v>
+        <v>0.01524191156492921</v>
       </c>
       <c r="T17">
-        <v>0.009169941075577318</v>
+        <v>0.01524191156492921</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.13733725069652</v>
+        <v>3.928174666666667</v>
       </c>
       <c r="H18">
-        <v>2.13733725069652</v>
+        <v>11.784524</v>
       </c>
       <c r="I18">
-        <v>0.03412984890089387</v>
+        <v>0.05818583028682699</v>
       </c>
       <c r="J18">
-        <v>0.03412984890089387</v>
+        <v>0.058185830286827</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>112.5673367645742</v>
+        <v>210.4970597587978</v>
       </c>
       <c r="R18">
-        <v>112.5673367645742</v>
+        <v>1894.47353782918</v>
       </c>
       <c r="S18">
-        <v>0.003866290304323903</v>
+        <v>0.006497324883508914</v>
       </c>
       <c r="T18">
-        <v>0.003866290304323903</v>
+        <v>0.006497324883508916</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.13733725069652</v>
+        <v>3.928174666666667</v>
       </c>
       <c r="H19">
-        <v>2.13733725069652</v>
+        <v>11.784524</v>
       </c>
       <c r="I19">
-        <v>0.03412984890089387</v>
+        <v>0.05818583028682699</v>
       </c>
       <c r="J19">
-        <v>0.03412984890089387</v>
+        <v>0.058185830286827</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>46.34742958949932</v>
+        <v>90.35868101816178</v>
       </c>
       <c r="R19">
-        <v>46.34742958949932</v>
+        <v>813.2281291634559</v>
       </c>
       <c r="S19">
-        <v>0.001591870455521066</v>
+        <v>0.00278906369187805</v>
       </c>
       <c r="T19">
-        <v>0.001591870455521066</v>
+        <v>0.002789063691878051</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.62989375133772</v>
+        <v>3.720544666666667</v>
       </c>
       <c r="H20">
-        <v>3.62989375133772</v>
+        <v>11.161634</v>
       </c>
       <c r="I20">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="J20">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>5.826608718303999</v>
+        <v>6.507422369778001</v>
       </c>
       <c r="R20">
-        <v>5.826608718303999</v>
+        <v>58.56680132800201</v>
       </c>
       <c r="S20">
-        <v>0.000200123423385081</v>
+        <v>0.0002008618901333325</v>
       </c>
       <c r="T20">
-        <v>0.000200123423385081</v>
+        <v>0.0002008618901333325</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.62989375133772</v>
+        <v>3.720544666666667</v>
       </c>
       <c r="H21">
-        <v>3.62989375133772</v>
+        <v>11.161634</v>
       </c>
       <c r="I21">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="J21">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>517.0257226739122</v>
+        <v>532.170165098049</v>
       </c>
       <c r="R21">
-        <v>517.0257226739122</v>
+        <v>4789.53148588244</v>
       </c>
       <c r="S21">
-        <v>0.0177580068616254</v>
+        <v>0.0164262743618113</v>
       </c>
       <c r="T21">
-        <v>0.0177580068616254</v>
+        <v>0.0164262743618113</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.62989375133772</v>
+        <v>3.720544666666667</v>
       </c>
       <c r="H22">
-        <v>3.62989375133772</v>
+        <v>11.161634</v>
       </c>
       <c r="I22">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="J22">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>441.4479834194316</v>
+        <v>494.1062349942693</v>
       </c>
       <c r="R22">
-        <v>441.4479834194316</v>
+        <v>4446.956114948424</v>
       </c>
       <c r="S22">
-        <v>0.01516217854320793</v>
+        <v>0.01525137091892796</v>
       </c>
       <c r="T22">
-        <v>0.01516217854320793</v>
+        <v>0.01525137091892796</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.62989375133772</v>
+        <v>3.720544666666667</v>
       </c>
       <c r="H23">
-        <v>3.62989375133772</v>
+        <v>11.161634</v>
       </c>
       <c r="I23">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="J23">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>453.4248668233172</v>
+        <v>467.6991929928853</v>
       </c>
       <c r="R23">
-        <v>453.4248668233172</v>
+        <v>4209.292736935968</v>
       </c>
       <c r="S23">
-        <v>0.01557354217240443</v>
+        <v>0.01443627577559408</v>
       </c>
       <c r="T23">
-        <v>0.01557354217240443</v>
+        <v>0.01443627577559408</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.62989375133772</v>
+        <v>3.720544666666667</v>
       </c>
       <c r="H24">
-        <v>3.62989375133772</v>
+        <v>11.161634</v>
       </c>
       <c r="I24">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="J24">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>191.1759467034502</v>
+        <v>199.3708985703478</v>
       </c>
       <c r="R24">
-        <v>191.1759467034502</v>
+        <v>1794.33808713313</v>
       </c>
       <c r="S24">
-        <v>0.006566218322330482</v>
+        <v>0.006153898310090347</v>
       </c>
       <c r="T24">
-        <v>0.006566218322330482</v>
+        <v>0.006153898310090348</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.62989375133772</v>
+        <v>3.720544666666667</v>
       </c>
       <c r="H25">
-        <v>3.62989375133772</v>
+        <v>11.161634</v>
       </c>
       <c r="I25">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="J25">
-        <v>0.05796358306069031</v>
+        <v>0.05511032449402945</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>78.71300844200574</v>
+        <v>85.58262737192177</v>
       </c>
       <c r="R25">
-        <v>78.71300844200574</v>
+        <v>770.243646347296</v>
       </c>
       <c r="S25">
-        <v>0.002703513737736989</v>
+        <v>0.002641643237472432</v>
       </c>
       <c r="T25">
-        <v>0.002703513737736989</v>
+        <v>0.002641643237472432</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>26.8528813724889</v>
+        <v>0.5081476666666667</v>
       </c>
       <c r="H26">
-        <v>26.8528813724889</v>
+        <v>1.524443</v>
       </c>
       <c r="I26">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="J26">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>43.10352958922459</v>
+        <v>0.8887761845310002</v>
       </c>
       <c r="R26">
-        <v>43.10352958922459</v>
+        <v>7.998985660779002</v>
       </c>
       <c r="S26">
-        <v>0.001480453951588946</v>
+        <v>2.743348351867905E-05</v>
       </c>
       <c r="T26">
-        <v>0.001480453951588946</v>
+        <v>2.743348351867905E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>26.8528813724889</v>
+        <v>0.5081476666666667</v>
       </c>
       <c r="H27">
-        <v>26.8528813724889</v>
+        <v>1.524443</v>
       </c>
       <c r="I27">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="J27">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>3824.803520040054</v>
+        <v>72.6831826767089</v>
       </c>
       <c r="R27">
-        <v>3824.803520040054</v>
+        <v>654.14864409038</v>
       </c>
       <c r="S27">
-        <v>0.131368487436123</v>
+        <v>0.002243481462207299</v>
       </c>
       <c r="T27">
-        <v>0.131368487436123</v>
+        <v>0.002243481462207299</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>26.8528813724889</v>
+        <v>0.5081476666666667</v>
       </c>
       <c r="H28">
-        <v>26.8528813724889</v>
+        <v>1.524443</v>
       </c>
       <c r="I28">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="J28">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>3265.701737555776</v>
+        <v>67.48445533990534</v>
       </c>
       <c r="R28">
-        <v>3265.701737555776</v>
+        <v>607.3600980591481</v>
       </c>
       <c r="S28">
-        <v>0.1121653165796418</v>
+        <v>0.002083014515416228</v>
       </c>
       <c r="T28">
-        <v>0.1121653165796418</v>
+        <v>0.002083014515416229</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>26.8528813724889</v>
+        <v>0.5081476666666667</v>
       </c>
       <c r="H29">
-        <v>26.8528813724889</v>
+        <v>1.524443</v>
       </c>
       <c r="I29">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="J29">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>3354.303181919855</v>
+        <v>63.87781223283733</v>
       </c>
       <c r="R29">
-        <v>3354.303181919855</v>
+        <v>574.900310095536</v>
       </c>
       <c r="S29">
-        <v>0.1152084631543038</v>
+        <v>0.001971689768019088</v>
       </c>
       <c r="T29">
-        <v>0.1152084631543038</v>
+        <v>0.001971689768019088</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>26.8528813724889</v>
+        <v>0.5081476666666667</v>
       </c>
       <c r="H30">
-        <v>26.8528813724889</v>
+        <v>1.524443</v>
       </c>
       <c r="I30">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="J30">
-        <v>0.428797459782263</v>
+        <v>0.007526904071809893</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>1414.263162994542</v>
+        <v>27.22984562379278</v>
       </c>
       <c r="R30">
-        <v>1414.263162994542</v>
+        <v>245.068610614135</v>
       </c>
       <c r="S30">
-        <v>0.04857494289204024</v>
+        <v>0.0008404922793140377</v>
       </c>
       <c r="T30">
-        <v>0.04857494289204024</v>
+        <v>0.0008404922793140378</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.5081476666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.524443</v>
+      </c>
+      <c r="I31">
+        <v>0.007526904071809893</v>
+      </c>
+      <c r="J31">
+        <v>0.007526904071809893</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>11.68877578486578</v>
+      </c>
+      <c r="R31">
+        <v>105.198982063792</v>
+      </c>
+      <c r="S31">
+        <v>0.0003607925633345607</v>
+      </c>
+      <c r="T31">
+        <v>0.0003607925633345608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>27.64760533333333</v>
+      </c>
+      <c r="H32">
+        <v>82.94281599999999</v>
+      </c>
+      <c r="I32">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="J32">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>48.35707175587201</v>
+      </c>
+      <c r="R32">
+        <v>435.213645802848</v>
+      </c>
+      <c r="S32">
+        <v>0.001492617549969943</v>
+      </c>
+      <c r="T32">
+        <v>0.001492617549969943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>27.64760533333333</v>
+      </c>
+      <c r="H33">
+        <v>82.94281599999999</v>
+      </c>
+      <c r="I33">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="J33">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>3954.590527194951</v>
+      </c>
+      <c r="R33">
+        <v>35591.31474475456</v>
+      </c>
+      <c r="S33">
+        <v>0.1220646951832708</v>
+      </c>
+      <c r="T33">
+        <v>0.1220646951832708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>27.64760533333333</v>
+      </c>
+      <c r="H34">
+        <v>82.94281599999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="J34">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>3671.73502854353</v>
+      </c>
+      <c r="R34">
+        <v>33045.61525689178</v>
+      </c>
+      <c r="S34">
+        <v>0.1133339125683921</v>
+      </c>
+      <c r="T34">
+        <v>0.1133339125683921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>27.64760533333333</v>
+      </c>
+      <c r="H35">
+        <v>82.94281599999999</v>
+      </c>
+      <c r="I35">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="J35">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>3475.502610796714</v>
+      </c>
+      <c r="R35">
+        <v>31279.52349717043</v>
+      </c>
+      <c r="S35">
+        <v>0.1072768884359008</v>
+      </c>
+      <c r="T35">
+        <v>0.1072768884359008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>26.8528813724889</v>
-      </c>
-      <c r="H31">
-        <v>26.8528813724889</v>
-      </c>
-      <c r="I31">
-        <v>0.428797459782263</v>
-      </c>
-      <c r="J31">
-        <v>0.428797459782263</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N31">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O31">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P31">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q31">
-        <v>582.2955774906494</v>
-      </c>
-      <c r="R31">
-        <v>582.2955774906494</v>
-      </c>
-      <c r="S31">
-        <v>0.01999979576856521</v>
-      </c>
-      <c r="T31">
-        <v>0.01999979576856521</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>27.64760533333333</v>
+      </c>
+      <c r="H36">
+        <v>82.94281599999999</v>
+      </c>
+      <c r="I36">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="J36">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>1481.537896321902</v>
+      </c>
+      <c r="R36">
+        <v>13333.84106689712</v>
+      </c>
+      <c r="S36">
+        <v>0.04573001186175202</v>
+      </c>
+      <c r="T36">
+        <v>0.04573001186175202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>27.64760533333333</v>
+      </c>
+      <c r="H37">
+        <v>82.94281599999999</v>
+      </c>
+      <c r="I37">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="J37">
+        <v>0.4095283454204445</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>635.9699766992782</v>
+      </c>
+      <c r="R37">
+        <v>5723.729790293503</v>
+      </c>
+      <c r="S37">
+        <v>0.01963021982115882</v>
+      </c>
+      <c r="T37">
+        <v>0.01963021982115883</v>
       </c>
     </row>
   </sheetData>
